--- a/Assets/Resources/Abilities.xlsx
+++ b/Assets/Resources/Abilities.xlsx
@@ -64,8 +64,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -93,9 +101,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -429,7 +438,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -475,7 +484,7 @@
         <v>5</v>
       </c>
       <c r="D2">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -498,7 +507,7 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -538,13 +547,13 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C5">
         <v>30</v>
       </c>
       <c r="D5">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -566,8 +575,8 @@
       <c r="C6">
         <v>5</v>
       </c>
-      <c r="D6">
-        <v>50</v>
+      <c r="D6" s="2">
+        <v>5</v>
       </c>
       <c r="E6">
         <v>3</v>

--- a/Assets/Resources/Abilities.xlsx
+++ b/Assets/Resources/Abilities.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17280" windowHeight="6924"/>
   </bookViews>
   <sheets>
     <sheet name="Abilities" sheetId="1" r:id="rId1"/>
@@ -438,7 +438,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -484,13 +484,13 @@
         <v>5</v>
       </c>
       <c r="D2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -553,7 +553,7 @@
         <v>30</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -576,7 +576,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="2">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E6">
         <v>3</v>

--- a/Assets/Resources/Abilities.xlsx
+++ b/Assets/Resources/Abilities.xlsx
@@ -8,8 +8,9 @@
   </bookViews>
   <sheets>
     <sheet name="Abilities" sheetId="1" r:id="rId1"/>
+    <sheet name="Characters" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="29">
   <si>
     <t>Heal</t>
   </si>
@@ -58,6 +59,54 @@
   </si>
   <si>
     <t>Swap</t>
+  </si>
+  <si>
+    <t>CharacterType</t>
+  </si>
+  <si>
+    <t>Boss</t>
+  </si>
+  <si>
+    <t>Barrier</t>
+  </si>
+  <si>
+    <t>Swapper</t>
+  </si>
+  <si>
+    <t>Healer</t>
+  </si>
+  <si>
+    <t>Nuker</t>
+  </si>
+  <si>
+    <t>Stuner</t>
+  </si>
+  <si>
+    <t>Poker</t>
+  </si>
+  <si>
+    <t>Health</t>
+  </si>
+  <si>
+    <t>StartStun</t>
+  </si>
+  <si>
+    <t>Ditto</t>
+  </si>
+  <si>
+    <t>Copy</t>
+  </si>
+  <si>
+    <t>Taunt</t>
+  </si>
+  <si>
+    <t>Taunter</t>
+  </si>
+  <si>
+    <t>Buffer</t>
+  </si>
+  <si>
+    <t>Buff</t>
   </si>
 </sst>
 </file>
@@ -133,6 +182,18 @@
     <tableColumn id="5" name="effectDuration"/>
     <tableColumn id="6" name="ticks"/>
     <tableColumn id="8" name="objectSpeed"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:C11" totalsRowShown="0">
+  <autoFilter ref="A1:C11"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="CharacterType"/>
+    <tableColumn id="2" name="Health"/>
+    <tableColumn id="9" name="StartStun"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -435,10 +496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -593,7 +654,7 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="C7">
         <v>5</v>
@@ -608,6 +669,75 @@
         <v>0</v>
       </c>
       <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>10</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>10</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>5</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10">
+        <v>5</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
         <v>0</v>
       </c>
     </row>
@@ -618,4 +748,149 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23.77734375" customWidth="1"/>
+    <col min="3" max="8" width="9.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2">
+        <f>SUM(B3:B11)</f>
+        <v>850</v>
+      </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3">
+        <v>100</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4">
+        <v>100</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5">
+        <v>50</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6">
+        <v>100</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7">
+        <v>100</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8">
+        <v>100</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9">
+        <v>100</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10">
+        <v>100</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11">
+        <v>100</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/Assets/Resources/Abilities.xlsx
+++ b/Assets/Resources/Abilities.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17280" windowHeight="6924"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17280" windowHeight="6924" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Abilities" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Heal</t>
   </si>
@@ -498,7 +498,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -754,8 +754,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -784,7 +784,7 @@
         <v>850</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">

--- a/Assets/Resources/Abilities.xlsx
+++ b/Assets/Resources/Abilities.xlsx
@@ -4,11 +4,14 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17280" windowHeight="6924" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17280" windowHeight="6924" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Abilities" sheetId="1" r:id="rId1"/>
-    <sheet name="Characters" sheetId="2" r:id="rId2"/>
+    <sheet name="Metadata" sheetId="3" r:id="rId1"/>
+    <sheet name="CharactersBase" sheetId="5" r:id="rId2"/>
+    <sheet name="AbilitiesBase" sheetId="4" r:id="rId3"/>
+    <sheet name="Abilities" sheetId="1" r:id="rId4"/>
+    <sheet name="Characters" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -20,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="32">
   <si>
     <t>Heal</t>
   </si>
@@ -107,13 +110,22 @@
   </si>
   <si>
     <t>Buff</t>
+  </si>
+  <si>
+    <t>Pacing</t>
+  </si>
+  <si>
+    <t>HealthMultiplier</t>
+  </si>
+  <si>
+    <t>DamageMultiplier</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -129,16 +141,42 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor theme="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor theme="0" tint="-0.34998626667073579"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor theme="0" tint="-0.14999847407452621"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -146,19 +184,477 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="17">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.34998626667073579"/>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.34998626667073579"/>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.34998626667073579"/>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.34998626667073579"/>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.34998626667073579"/>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.34998626667073579"/>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="0"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="0" tint="-0.34998626667073579"/>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thick">
+          <color theme="0"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="1"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0"/>
+        </left>
+        <right style="thin">
+          <color theme="0"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -172,27 +668,79 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabela4" displayName="Tabela4" ref="A1:G17" totalsRowShown="0">
-  <autoFilter ref="A1:G17"/>
-  <tableColumns count="7">
-    <tableColumn id="1" name="AbilityType"/>
-    <tableColumn id="2" name="castTime"/>
-    <tableColumn id="3" name="cooldown"/>
-    <tableColumn id="4" name="power"/>
-    <tableColumn id="5" name="effectDuration"/>
-    <tableColumn id="6" name="ticks"/>
-    <tableColumn id="8" name="objectSpeed"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Metadata" displayName="Metadata" ref="A1:C2" totalsRowShown="0">
+  <autoFilter ref="A1:C2"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="Pacing"/>
+    <tableColumn id="2" name="DamageMultiplier"/>
+    <tableColumn id="3" name="HealthMultiplier"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:C11" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="CharactersBase" displayName="CharactersBase" ref="A1:C11" totalsRowShown="0">
   <autoFilter ref="A1:C11"/>
   <tableColumns count="3">
     <tableColumn id="1" name="CharacterType"/>
     <tableColumn id="2" name="Health"/>
+    <tableColumn id="9" name="StartStun"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="AbitiliesBase" displayName="AbitiliesBase" ref="A1:G10" totalsRowShown="0" headerRowDxfId="16" dataDxfId="14" headerRowBorderDxfId="15" tableBorderDxfId="13" totalsRowBorderDxfId="12">
+  <autoFilter ref="A1:G10"/>
+  <tableColumns count="7">
+    <tableColumn id="1" name="AbilityType" dataDxfId="11"/>
+    <tableColumn id="2" name="castTime" dataDxfId="10"/>
+    <tableColumn id="3" name="cooldown" dataDxfId="9"/>
+    <tableColumn id="4" name="power"/>
+    <tableColumn id="5" name="effectDuration" dataDxfId="8"/>
+    <tableColumn id="6" name="ticks" dataDxfId="7"/>
+    <tableColumn id="7" name="objectSpeed" dataDxfId="6"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Abilities" displayName="Abilities" ref="A1:G10" totalsRowShown="0">
+  <autoFilter ref="A1:G10"/>
+  <tableColumns count="7">
+    <tableColumn id="1" name="AbilityType"/>
+    <tableColumn id="2" name="castTime" dataDxfId="5">
+      <calculatedColumnFormula>AbitiliesBase[[#This Row],[castTime]]/Metadata[Pacing]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" name="cooldown" dataDxfId="4">
+      <calculatedColumnFormula>AbitiliesBase[[#This Row],[cooldown]]/Metadata[Pacing]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" name="power" dataDxfId="3">
+      <calculatedColumnFormula>AbitiliesBase[[#This Row],[power]]*Metadata[DamageMultiplier]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" name="effectDuration" dataDxfId="2">
+      <calculatedColumnFormula>AbitiliesBase[[#This Row],[effectDuration]]/Metadata[Pacing]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" name="ticks"/>
+    <tableColumn id="8" name="objectSpeed" dataDxfId="1">
+      <calculatedColumnFormula>AbitiliesBase[[#This Row],[objectSpeed]]*Metadata[Pacing]</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Characters" displayName="Characters" ref="A1:C11" totalsRowShown="0">
+  <autoFilter ref="A1:C11"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="CharacterType"/>
+    <tableColumn id="2" name="Health" dataDxfId="0">
+      <calculatedColumnFormula>CharactersBase[[#This Row],[Health]]*Metadata[HealthMultiplier]</calculatedColumnFormula>
+    </tableColumn>
     <tableColumn id="9" name="StartStun"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -496,10 +1044,460 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.5546875" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" customWidth="1"/>
+    <col min="4" max="4" width="15.77734375" customWidth="1"/>
+    <col min="5" max="5" width="19.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B6" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2">
+        <f>SUM(B3:B11)</f>
+        <v>1000</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3">
+        <v>150</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4">
+        <v>100</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5">
+        <v>50</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6">
+        <v>100</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7">
+        <v>100</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8">
+        <v>200</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9">
+        <v>100</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10">
+        <v>100</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11">
+        <v>100</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.33203125" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" customWidth="1"/>
+    <col min="3" max="3" width="11.21875" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" customWidth="1"/>
+    <col min="7" max="7" width="13.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="C2" s="7">
+        <v>5</v>
+      </c>
+      <c r="D2" s="7">
+        <v>7</v>
+      </c>
+      <c r="E2" s="7">
+        <v>2</v>
+      </c>
+      <c r="F2" s="7">
+        <v>4</v>
+      </c>
+      <c r="G2" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="10">
+        <v>0</v>
+      </c>
+      <c r="C3" s="10">
+        <v>2</v>
+      </c>
+      <c r="D3" s="10">
+        <v>15</v>
+      </c>
+      <c r="E3" s="10">
+        <v>0</v>
+      </c>
+      <c r="F3" s="10">
+        <v>0</v>
+      </c>
+      <c r="G3" s="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="7">
+        <v>0</v>
+      </c>
+      <c r="C4" s="7">
+        <v>3</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0</v>
+      </c>
+      <c r="E4" s="7">
+        <v>0</v>
+      </c>
+      <c r="F4" s="7">
+        <v>0</v>
+      </c>
+      <c r="G4" s="8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="10">
+        <v>5</v>
+      </c>
+      <c r="C5" s="10">
+        <v>30</v>
+      </c>
+      <c r="D5" s="10">
+        <v>6</v>
+      </c>
+      <c r="E5" s="10">
+        <v>3</v>
+      </c>
+      <c r="F5" s="10">
+        <v>10</v>
+      </c>
+      <c r="G5" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="7">
+        <v>0</v>
+      </c>
+      <c r="C6" s="7">
+        <v>6</v>
+      </c>
+      <c r="D6" s="12">
+        <v>15</v>
+      </c>
+      <c r="E6" s="7">
+        <v>3</v>
+      </c>
+      <c r="F6" s="7">
+        <v>0</v>
+      </c>
+      <c r="G6" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="10">
+        <v>0</v>
+      </c>
+      <c r="C7" s="10">
+        <v>3</v>
+      </c>
+      <c r="D7" s="10">
+        <v>0</v>
+      </c>
+      <c r="E7" s="10">
+        <v>2</v>
+      </c>
+      <c r="F7" s="10">
+        <v>0</v>
+      </c>
+      <c r="G7" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="7">
+        <v>0</v>
+      </c>
+      <c r="C8" s="7">
+        <v>0</v>
+      </c>
+      <c r="D8" s="7">
+        <v>0</v>
+      </c>
+      <c r="E8" s="7">
+        <v>10</v>
+      </c>
+      <c r="F8" s="7">
+        <v>0</v>
+      </c>
+      <c r="G8" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="10">
+        <v>0</v>
+      </c>
+      <c r="C9" s="10">
+        <v>5</v>
+      </c>
+      <c r="D9" s="10">
+        <v>0</v>
+      </c>
+      <c r="E9" s="10">
+        <v>4</v>
+      </c>
+      <c r="F9" s="10">
+        <v>0</v>
+      </c>
+      <c r="G9" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="14">
+        <v>0</v>
+      </c>
+      <c r="C10" s="14">
+        <v>5</v>
+      </c>
+      <c r="D10" s="14">
+        <v>2</v>
+      </c>
+      <c r="E10" s="14">
+        <v>5</v>
+      </c>
+      <c r="F10" s="14">
+        <v>0</v>
+      </c>
+      <c r="G10" s="15">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -539,21 +1537,26 @@
         <v>0</v>
       </c>
       <c r="B2">
+        <f>AbitiliesBase[[#This Row],[castTime]]/Metadata[Pacing]</f>
         <v>0.5</v>
       </c>
       <c r="C2">
+        <f>AbitiliesBase[[#This Row],[cooldown]]/Metadata[Pacing]</f>
         <v>5</v>
       </c>
       <c r="D2">
-        <v>5</v>
+        <f>AbitiliesBase[[#This Row],[power]]*Metadata[DamageMultiplier]</f>
+        <v>7</v>
       </c>
       <c r="E2">
+        <f>AbitiliesBase[[#This Row],[effectDuration]]/Metadata[Pacing]</f>
         <v>2</v>
       </c>
       <c r="F2">
         <v>4</v>
       </c>
       <c r="G2">
+        <f>AbitiliesBase[[#This Row],[objectSpeed]]*Metadata[Pacing]</f>
         <v>0</v>
       </c>
     </row>
@@ -562,21 +1565,26 @@
         <v>1</v>
       </c>
       <c r="B3">
+        <f>AbitiliesBase[[#This Row],[castTime]]/Metadata[Pacing]</f>
         <v>0</v>
       </c>
       <c r="C3">
+        <f>AbitiliesBase[[#This Row],[cooldown]]/Metadata[Pacing]</f>
         <v>2</v>
       </c>
       <c r="D3">
+        <f>AbitiliesBase[[#This Row],[power]]*Metadata[DamageMultiplier]</f>
         <v>15</v>
       </c>
       <c r="E3">
+        <f>AbitiliesBase[[#This Row],[effectDuration]]/Metadata[Pacing]</f>
         <v>0</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
+        <f>AbitiliesBase[[#This Row],[objectSpeed]]*Metadata[Pacing]</f>
         <v>5</v>
       </c>
     </row>
@@ -585,21 +1593,26 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <f>AbitiliesBase[[#This Row],[castTime]]/Metadata[Pacing]</f>
+        <v>0</v>
       </c>
       <c r="C4">
+        <f>AbitiliesBase[[#This Row],[cooldown]]/Metadata[Pacing]</f>
         <v>3</v>
       </c>
       <c r="D4">
+        <f>AbitiliesBase[[#This Row],[power]]*Metadata[DamageMultiplier]</f>
         <v>0</v>
       </c>
       <c r="E4">
+        <f>AbitiliesBase[[#This Row],[effectDuration]]/Metadata[Pacing]</f>
         <v>0</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
+        <f>AbitiliesBase[[#This Row],[objectSpeed]]*Metadata[Pacing]</f>
         <v>3</v>
       </c>
     </row>
@@ -608,21 +1621,26 @@
         <v>8</v>
       </c>
       <c r="B5">
+        <f>AbitiliesBase[[#This Row],[castTime]]/Metadata[Pacing]</f>
         <v>5</v>
       </c>
       <c r="C5">
+        <f>AbitiliesBase[[#This Row],[cooldown]]/Metadata[Pacing]</f>
         <v>30</v>
       </c>
       <c r="D5">
+        <f>AbitiliesBase[[#This Row],[power]]*Metadata[DamageMultiplier]</f>
         <v>6</v>
       </c>
       <c r="E5">
+        <f>AbitiliesBase[[#This Row],[effectDuration]]/Metadata[Pacing]</f>
         <v>3</v>
       </c>
       <c r="F5">
         <v>10</v>
       </c>
       <c r="G5">
+        <f>AbitiliesBase[[#This Row],[objectSpeed]]*Metadata[Pacing]</f>
         <v>0</v>
       </c>
     </row>
@@ -631,21 +1649,26 @@
         <v>11</v>
       </c>
       <c r="B6">
+        <f>AbitiliesBase[[#This Row],[castTime]]/Metadata[Pacing]</f>
         <v>0</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <f>AbitiliesBase[[#This Row],[cooldown]]/Metadata[Pacing]</f>
+        <v>6</v>
       </c>
       <c r="D6" s="2">
+        <f>AbitiliesBase[[#This Row],[power]]*Metadata[DamageMultiplier]</f>
         <v>15</v>
       </c>
       <c r="E6">
+        <f>AbitiliesBase[[#This Row],[effectDuration]]/Metadata[Pacing]</f>
         <v>3</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6" s="1">
+        <f>AbitiliesBase[[#This Row],[objectSpeed]]*Metadata[Pacing]</f>
         <v>5</v>
       </c>
     </row>
@@ -654,21 +1677,26 @@
         <v>12</v>
       </c>
       <c r="B7">
+        <f>AbitiliesBase[[#This Row],[castTime]]/Metadata[Pacing]</f>
         <v>0</v>
       </c>
       <c r="C7">
-        <v>5</v>
+        <f>AbitiliesBase[[#This Row],[cooldown]]/Metadata[Pacing]</f>
+        <v>3</v>
       </c>
       <c r="D7">
+        <f>AbitiliesBase[[#This Row],[power]]*Metadata[DamageMultiplier]</f>
         <v>0</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <f>AbitiliesBase[[#This Row],[effectDuration]]/Metadata[Pacing]</f>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
+        <f>AbitiliesBase[[#This Row],[objectSpeed]]*Metadata[Pacing]</f>
         <v>0</v>
       </c>
     </row>
@@ -677,21 +1705,26 @@
         <v>24</v>
       </c>
       <c r="B8">
+        <f>AbitiliesBase[[#This Row],[castTime]]/Metadata[Pacing]</f>
         <v>0</v>
       </c>
       <c r="C8">
+        <f>AbitiliesBase[[#This Row],[cooldown]]/Metadata[Pacing]</f>
         <v>0</v>
       </c>
       <c r="D8">
+        <f>AbitiliesBase[[#This Row],[power]]*Metadata[DamageMultiplier]</f>
         <v>0</v>
       </c>
       <c r="E8">
+        <f>AbitiliesBase[[#This Row],[effectDuration]]/Metadata[Pacing]</f>
         <v>10</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
+        <f>AbitiliesBase[[#This Row],[objectSpeed]]*Metadata[Pacing]</f>
         <v>0</v>
       </c>
     </row>
@@ -700,21 +1733,26 @@
         <v>25</v>
       </c>
       <c r="B9">
+        <f>AbitiliesBase[[#This Row],[castTime]]/Metadata[Pacing]</f>
         <v>0</v>
       </c>
       <c r="C9">
-        <v>10</v>
+        <f>AbitiliesBase[[#This Row],[cooldown]]/Metadata[Pacing]</f>
+        <v>5</v>
       </c>
       <c r="D9">
+        <f>AbitiliesBase[[#This Row],[power]]*Metadata[DamageMultiplier]</f>
         <v>0</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <f>AbitiliesBase[[#This Row],[effectDuration]]/Metadata[Pacing]</f>
+        <v>4</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
+        <f>AbitiliesBase[[#This Row],[objectSpeed]]*Metadata[Pacing]</f>
         <v>0</v>
       </c>
     </row>
@@ -723,21 +1761,26 @@
         <v>28</v>
       </c>
       <c r="B10">
+        <f>AbitiliesBase[[#This Row],[castTime]]/Metadata[Pacing]</f>
         <v>0</v>
       </c>
       <c r="C10">
+        <f>AbitiliesBase[[#This Row],[cooldown]]/Metadata[Pacing]</f>
         <v>5</v>
       </c>
       <c r="D10">
+        <f>AbitiliesBase[[#This Row],[power]]*Metadata[DamageMultiplier]</f>
         <v>2</v>
       </c>
       <c r="E10">
+        <f>AbitiliesBase[[#This Row],[effectDuration]]/Metadata[Pacing]</f>
         <v>5</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
+        <f>AbitiliesBase[[#This Row],[objectSpeed]]*Metadata[Pacing]</f>
         <v>0</v>
       </c>
     </row>
@@ -750,12 +1793,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -780,11 +1823,11 @@
         <v>14</v>
       </c>
       <c r="B2">
-        <f>SUM(B3:B11)</f>
-        <v>850</v>
+        <f>CharactersBase[[#This Row],[Health]]*Metadata[HealthMultiplier]</f>
+        <v>750</v>
       </c>
       <c r="C2">
-        <v>50</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -792,7 +1835,8 @@
         <v>20</v>
       </c>
       <c r="B3">
-        <v>100</v>
+        <f>CharactersBase[[#This Row],[Health]]*Metadata[HealthMultiplier]</f>
+        <v>112.5</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -803,7 +1847,8 @@
         <v>19</v>
       </c>
       <c r="B4">
-        <v>100</v>
+        <f>CharactersBase[[#This Row],[Health]]*Metadata[HealthMultiplier]</f>
+        <v>75</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -814,7 +1859,8 @@
         <v>18</v>
       </c>
       <c r="B5">
-        <v>50</v>
+        <f>CharactersBase[[#This Row],[Health]]*Metadata[HealthMultiplier]</f>
+        <v>37.5</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -825,7 +1871,8 @@
         <v>17</v>
       </c>
       <c r="B6">
-        <v>100</v>
+        <f>CharactersBase[[#This Row],[Health]]*Metadata[HealthMultiplier]</f>
+        <v>75</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -836,7 +1883,8 @@
         <v>16</v>
       </c>
       <c r="B7">
-        <v>100</v>
+        <f>CharactersBase[[#This Row],[Health]]*Metadata[HealthMultiplier]</f>
+        <v>75</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -847,7 +1895,8 @@
         <v>15</v>
       </c>
       <c r="B8">
-        <v>100</v>
+        <f>CharactersBase[[#This Row],[Health]]*Metadata[HealthMultiplier]</f>
+        <v>150</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -858,7 +1907,8 @@
         <v>23</v>
       </c>
       <c r="B9">
-        <v>100</v>
+        <f>CharactersBase[[#This Row],[Health]]*Metadata[HealthMultiplier]</f>
+        <v>75</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -869,7 +1919,8 @@
         <v>26</v>
       </c>
       <c r="B10">
-        <v>100</v>
+        <f>CharactersBase[[#This Row],[Health]]*Metadata[HealthMultiplier]</f>
+        <v>75</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -880,7 +1931,8 @@
         <v>27</v>
       </c>
       <c r="B11">
-        <v>100</v>
+        <f>CharactersBase[[#This Row],[Health]]*Metadata[HealthMultiplier]</f>
+        <v>75</v>
       </c>
       <c r="C11">
         <v>0</v>
